--- a/public/data/Germany10StatesXLSX.xlsx
+++ b/public/data/Germany10StatesXLSX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancyyu/Documents/R website/First_Website/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{215F78DB-AE5E-F544-85D1-7632FCC1668F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B26A759-FCC1-5D48-B906-0F2FF242523D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="460" windowWidth="27320" windowHeight="16540"/>
+    <workbookView xWindow="7060" yWindow="3500" windowWidth="27720" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Germany10States" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -576,10 +573,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -935,15 +931,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:K231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="F209" sqref="F209:F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,23 +955,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -991,23 +987,26 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1023,23 +1022,26 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G3">
         <v>10</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1055,23 +1057,27 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
+        <f>F3+1</f>
+        <v>43907</v>
+      </c>
+      <c r="G4">
         <v>13</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1087,23 +1093,27 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F24" si="0">F4+1</f>
+        <v>43908</v>
+      </c>
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>24.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1119,23 +1129,27 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>43909</v>
+      </c>
+      <c r="G6">
         <v>19</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1151,23 +1165,27 @@
       <c r="E7">
         <v>392</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>43910</v>
+      </c>
+      <c r="G7">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>24.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1183,23 +1201,27 @@
       <c r="E8">
         <v>521</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>43911</v>
+      </c>
+      <c r="G8">
         <v>33</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>31.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1215,23 +1237,27 @@
       <c r="E9">
         <v>466</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>43912</v>
+      </c>
+      <c r="G9">
         <v>34</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>19.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1247,23 +1273,27 @@
       <c r="E10">
         <v>440</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>43913</v>
+      </c>
+      <c r="G10">
         <v>34</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10.4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1279,23 +1309,27 @@
       <c r="E11">
         <v>639</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>43914</v>
+      </c>
+      <c r="G11">
         <v>48</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>30</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>14.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1311,23 +1345,27 @@
       <c r="E12">
         <v>665</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>43915</v>
+      </c>
+      <c r="G12">
         <v>55</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>37</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>11</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>7</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1343,23 +1381,27 @@
       <c r="E13">
         <v>723</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>43916</v>
+      </c>
+      <c r="G13">
         <v>66</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>56</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>12</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>8</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>22.8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1375,23 +1417,27 @@
       <c r="E14">
         <v>871</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>43917</v>
+      </c>
+      <c r="G14">
         <v>74</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>70</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>13</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>9</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1407,23 +1453,27 @@
       <c r="E15">
         <v>1194</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>43918</v>
+      </c>
+      <c r="G15">
         <v>88</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>101</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>14</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>17.3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1439,23 +1489,27 @@
       <c r="E16">
         <v>889</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>43919</v>
+      </c>
+      <c r="G16">
         <v>88</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>101</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>11</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1471,23 +1525,27 @@
       <c r="E17">
         <v>975</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>43920</v>
+      </c>
+      <c r="G17">
         <v>99</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>119</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>16</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>12</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1503,23 +1561,27 @@
       <c r="E18">
         <v>1010</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>43921</v>
+      </c>
+      <c r="G18">
         <v>111</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>165</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>17</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>13</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>8.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1535,23 +1597,27 @@
       <c r="E19">
         <v>1050</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>43922</v>
+      </c>
+      <c r="G19">
         <v>121</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>197</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>18</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>14</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>10.9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1567,23 +1633,27 @@
       <c r="E20">
         <v>976</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>43923</v>
+      </c>
+      <c r="G20">
         <v>132</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>241</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>19</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>15</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>10.1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1599,23 +1669,27 @@
       <c r="E21">
         <v>1253</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>43924</v>
+      </c>
+      <c r="G21">
         <v>145</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>285</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>16</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1631,23 +1705,27 @@
       <c r="E22">
         <v>1214</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>43925</v>
+      </c>
+      <c r="G22">
         <v>154</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>316</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>21</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>17</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1663,24 +1741,27 @@
       <c r="E23">
         <v>1256</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>43926</v>
+      </c>
+      <c r="G23">
         <v>168</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>367</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>22</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>18</v>
       </c>
-      <c r="J23" s="1">
-        <f>D23/(SUM(B20:B22)/3)*100</f>
-        <v>8.2769456373729966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1690,32 +1771,33 @@
       <c r="C24">
         <v>781</v>
       </c>
-      <c r="D24" s="2">
-        <f>SUM(C21:C24)/3</f>
-        <v>1577.6666666666667</v>
-      </c>
-      <c r="E24" s="2">
-        <f>SUM(C19:C24)/5</f>
-        <v>1412.2</v>
-      </c>
-      <c r="F24">
+      <c r="D24">
+        <v>1578</v>
+      </c>
+      <c r="E24">
+        <v>1412</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>43927</v>
+      </c>
+      <c r="G24">
         <v>175</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>387</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>23</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>19</v>
       </c>
-      <c r="J24" s="1">
-        <f>D24/(SUM(B21:B23)/3)*100</f>
-        <v>9.157041422407957</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1731,23 +1813,26 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G25">
         <v>6</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1763,23 +1848,26 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G26">
         <v>7</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1795,23 +1883,27 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
+        <f>F26+1</f>
+        <v>43907</v>
+      </c>
+      <c r="G27">
         <v>9</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>4</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1827,23 +1919,27 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
+        <f t="shared" ref="F28:F47" si="1">F27+1</f>
+        <v>43908</v>
+      </c>
+      <c r="G28">
         <v>10</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1859,23 +1955,27 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>43909</v>
+      </c>
+      <c r="G29">
         <v>13</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>8</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>5</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>21.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1891,23 +1991,27 @@
       <c r="E30">
         <v>323</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>43910</v>
+      </c>
+      <c r="G30">
         <v>18</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>12</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>6</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1923,23 +2027,27 @@
       <c r="E31">
         <v>399</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>43911</v>
+      </c>
+      <c r="G31">
         <v>23</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>19</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>7</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1955,23 +2063,27 @@
       <c r="E32">
         <v>508</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>43912</v>
+      </c>
+      <c r="G32">
         <v>28</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>21</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>8</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>4</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>27.8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1987,23 +2099,27 @@
       <c r="E33">
         <v>730</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>43913</v>
+      </c>
+      <c r="G33">
         <v>37</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>26</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>9</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>5</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>27.6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2019,23 +2135,27 @@
       <c r="E34">
         <v>812</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>43914</v>
+      </c>
+      <c r="G34">
         <v>44</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>30</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>10</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>24.3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2051,23 +2171,27 @@
       <c r="E35">
         <v>831</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>43915</v>
+      </c>
+      <c r="G35">
         <v>50</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>37</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>11</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>7</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>20.3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2083,23 +2207,27 @@
       <c r="E36">
         <v>1007</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>43916</v>
+      </c>
+      <c r="G36">
         <v>61</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>47</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>12</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>8</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2115,23 +2243,27 @@
       <c r="E37">
         <v>1166</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>43917</v>
+      </c>
+      <c r="G37">
         <v>73</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>55</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>13</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>9</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2147,23 +2279,27 @@
       <c r="E38">
         <v>1252</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>43918</v>
+      </c>
+      <c r="G38">
         <v>85</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>77</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>14</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>10</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2179,23 +2315,27 @@
       <c r="E39">
         <v>1425</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>43919</v>
+      </c>
+      <c r="G39">
         <v>99</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>107</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>15</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>11</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2211,23 +2351,27 @@
       <c r="E40">
         <v>1486</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>43920</v>
+      </c>
+      <c r="G40">
         <v>107</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>127</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>16</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>12</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>13.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2243,23 +2387,27 @@
       <c r="E41">
         <v>1363</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>43921</v>
+      </c>
+      <c r="G41">
         <v>113</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>162</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>17</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>13</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>9.6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2275,23 +2423,27 @@
       <c r="E42">
         <v>1403</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>43922</v>
+      </c>
+      <c r="G42">
         <v>126</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>225</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>18</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>14</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2307,23 +2459,27 @@
       <c r="E43">
         <v>1469</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>43923</v>
+      </c>
+      <c r="G43">
         <v>141</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>268</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>19</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>15</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>9.9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2339,23 +2495,27 @@
       <c r="E44">
         <v>1471</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>43924</v>
+      </c>
+      <c r="G44">
         <v>155</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>307</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>20</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>16</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>10.9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2371,23 +2531,27 @@
       <c r="E45">
         <v>1584</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>43925</v>
+      </c>
+      <c r="G45">
         <v>168</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>349</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>21</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>17</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2403,24 +2567,27 @@
       <c r="E46">
         <v>1807</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>43926</v>
+      </c>
+      <c r="G46">
         <v>182</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>396</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>22</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>18</v>
       </c>
-      <c r="J46" s="1">
-        <f>D46/(SUM(B43:B45)/3)*100</f>
-        <v>8.8207648290760368</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2430,32 +2597,33 @@
       <c r="C47">
         <v>1128</v>
       </c>
-      <c r="D47" s="2">
-        <f>SUM(C44:C47)/3</f>
-        <v>2159.3333333333335</v>
-      </c>
-      <c r="E47" s="2">
-        <f>SUM(C42:C47)/5</f>
-        <v>2032.8</v>
-      </c>
-      <c r="F47">
+      <c r="D47">
+        <v>2159</v>
+      </c>
+      <c r="E47">
+        <v>2033</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>43927</v>
+      </c>
+      <c r="G47">
         <v>191</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>437</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>23</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>19</v>
       </c>
-      <c r="J47" s="1">
-        <f>D47/(SUM(B44:B46)/3)*100</f>
-        <v>9.8164901274416216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2471,23 +2639,26 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2503,23 +2674,26 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G49">
         <v>8</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>2</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2535,23 +2709,27 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
+        <f>F49+1</f>
+        <v>43907</v>
+      </c>
+      <c r="G50">
         <v>9</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>3</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2567,23 +2745,27 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
+        <f t="shared" ref="F51:F70" si="2">F50+1</f>
+        <v>43908</v>
+      </c>
+      <c r="G51">
         <v>10</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>4</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>13.8</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2599,23 +2781,27 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>43909</v>
+      </c>
+      <c r="G52">
         <v>15</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>5</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>26.4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2631,23 +2817,27 @@
       <c r="E53">
         <v>93</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>43910</v>
+      </c>
+      <c r="G53">
         <v>20</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>6</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
         <v>29.6</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2663,23 +2853,27 @@
       <c r="E54">
         <v>113</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>43911</v>
+      </c>
+      <c r="G54">
         <v>23</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>1</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>7</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2695,23 +2889,27 @@
       <c r="E55">
         <v>136</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>43912</v>
+      </c>
+      <c r="G55">
         <v>27</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>1</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>8</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
       <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>20.7</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2727,23 +2925,27 @@
       <c r="E56">
         <v>137</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>43913</v>
+      </c>
+      <c r="G56">
         <v>29</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>1</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>9</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
         <v>13.2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2759,23 +2961,27 @@
       <c r="E57">
         <v>129</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>43914</v>
+      </c>
+      <c r="G57">
         <v>33</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>1</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>10</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
         <v>11.9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2791,23 +2997,27 @@
       <c r="E58">
         <v>139</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>43915</v>
+      </c>
+      <c r="G58">
         <v>38</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>2</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>11</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
         <v>12.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2823,23 +3033,27 @@
       <c r="E59">
         <v>158</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>43916</v>
+      </c>
+      <c r="G59">
         <v>44</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>4</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>12</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
         <v>15.5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2855,23 +3069,27 @@
       <c r="E60">
         <v>186</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>43917</v>
+      </c>
+      <c r="G60">
         <v>52</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>8</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>13</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2887,23 +3105,27 @@
       <c r="E61">
         <v>217</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>43918</v>
+      </c>
+      <c r="G61">
         <v>58</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>8</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>14</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>2</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>14.5</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2919,23 +3141,27 @@
       <c r="E62">
         <v>228</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>43919</v>
+      </c>
+      <c r="G62">
         <v>63</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>9</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>15</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>3</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>12.2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2951,23 +3177,27 @@
       <c r="E63">
         <v>207</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
+        <f t="shared" si="2"/>
+        <v>43920</v>
+      </c>
+      <c r="G63">
         <v>66</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>11</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>16</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>4</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>7.9</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -2983,23 +3213,27 @@
       <c r="E64">
         <v>184</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
+        <f t="shared" si="2"/>
+        <v>43921</v>
+      </c>
+      <c r="G64">
         <v>69</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>13</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>17</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>5</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>5.9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3015,23 +3249,27 @@
       <c r="E65">
         <v>160</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
+        <f t="shared" si="2"/>
+        <v>43922</v>
+      </c>
+      <c r="G65">
         <v>73</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>16</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>18</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>6</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>5.3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3047,23 +3285,27 @@
       <c r="E66">
         <v>162</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
+        <f t="shared" si="2"/>
+        <v>43923</v>
+      </c>
+      <c r="G66">
         <v>79</v>
-      </c>
-      <c r="G66">
-        <v>19</v>
       </c>
       <c r="H66">
         <v>19</v>
       </c>
       <c r="I66">
+        <v>19</v>
+      </c>
+      <c r="J66">
         <v>7</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>6.5</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -3079,23 +3321,27 @@
       <c r="E67">
         <v>168</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
+        <f t="shared" si="2"/>
+        <v>43924</v>
+      </c>
+      <c r="G67">
         <v>85</v>
-      </c>
-      <c r="G67">
-        <v>20</v>
       </c>
       <c r="H67">
         <v>20</v>
       </c>
       <c r="I67">
+        <v>20</v>
+      </c>
+      <c r="J67">
         <v>8</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>7.6</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3111,23 +3357,27 @@
       <c r="E68">
         <v>201</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
+        <f t="shared" si="2"/>
+        <v>43925</v>
+      </c>
+      <c r="G68">
         <v>93</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>22</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>21</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>9</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3143,24 +3393,27 @@
       <c r="E69">
         <v>208</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
+        <f t="shared" si="2"/>
+        <v>43926</v>
+      </c>
+      <c r="G69">
         <v>96</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>24</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>22</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>10</v>
       </c>
-      <c r="J69" s="1">
-        <f>D69/(SUM(B66:B68)/3)*100</f>
-        <v>6.6576791454941402</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -3170,32 +3423,33 @@
       <c r="C70">
         <v>57</v>
       </c>
-      <c r="D70" s="2">
-        <f>SUM(C67:C70)/3</f>
-        <v>233.33333333333334</v>
-      </c>
-      <c r="E70" s="2">
-        <f>SUM(C65:C70)/5</f>
+      <c r="D70">
+        <v>233</v>
+      </c>
+      <c r="E70">
         <v>219</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
+        <f t="shared" si="2"/>
+        <v>43927</v>
+      </c>
+      <c r="G70">
         <v>98</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>26</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>23</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>11</v>
       </c>
-      <c r="J70" s="1">
-        <f>D70/(SUM(B67:B69)/3)*100</f>
-        <v>6.8053665175967337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -3211,23 +3465,26 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G71">
         <v>9</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3243,23 +3500,26 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G72">
         <v>14</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>2</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -3275,23 +3535,27 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
+        <f>F72+1</f>
+        <v>43907</v>
+      </c>
+      <c r="G73">
         <v>17</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>3</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -3307,23 +3571,27 @@
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
+        <f t="shared" ref="F74:F93" si="3">F73+1</f>
+        <v>43908</v>
+      </c>
+      <c r="G74">
         <v>19</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <v>4</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
       <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
         <v>27.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3339,23 +3607,27 @@
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
+        <f t="shared" si="3"/>
+        <v>43909</v>
+      </c>
+      <c r="G75">
         <v>23</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>5</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -3371,23 +3643,27 @@
       <c r="E76">
         <v>86</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
+        <f t="shared" si="3"/>
+        <v>43910</v>
+      </c>
+      <c r="G76">
         <v>32</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>6</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
         <v>25.1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -3403,23 +3679,27 @@
       <c r="E77">
         <v>66</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
+        <f t="shared" si="3"/>
+        <v>43911</v>
+      </c>
+      <c r="G77">
         <v>32</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>7</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3435,23 +3715,27 @@
       <c r="E78">
         <v>112</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
+        <f t="shared" si="3"/>
+        <v>43912</v>
+      </c>
+      <c r="G78">
         <v>47</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>8</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
       <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
         <v>27.5</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3467,23 +3751,27 @@
       <c r="E79">
         <v>117</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
+        <f t="shared" si="3"/>
+        <v>43913</v>
+      </c>
+      <c r="G79">
         <v>51</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>9</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
       <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
         <v>17.5</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3499,23 +3787,27 @@
       <c r="E80">
         <v>122</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
+        <f t="shared" si="3"/>
+        <v>43914</v>
+      </c>
+      <c r="G80">
         <v>57</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>10</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
       <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3531,23 +3823,27 @@
       <c r="E81">
         <v>135</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
+        <f t="shared" si="3"/>
+        <v>43915</v>
+      </c>
+      <c r="G81">
         <v>69</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
       <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
         <v>11</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
       <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
         <v>13.6</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -3563,23 +3859,27 @@
       <c r="E82">
         <v>136</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
+        <f t="shared" si="3"/>
+        <v>43916</v>
+      </c>
+      <c r="G82">
         <v>69</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>12</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
       <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
         <v>9.9</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -3595,23 +3895,27 @@
       <c r="E83">
         <v>164</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
+        <f t="shared" si="3"/>
+        <v>43917</v>
+      </c>
+      <c r="G83">
         <v>92</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>2</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>13</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
       <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
         <v>18.2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -3627,23 +3931,27 @@
       <c r="E84">
         <v>164</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
+        <f t="shared" si="3"/>
+        <v>43918</v>
+      </c>
+      <c r="G84">
         <v>96</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>2</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>14</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
       <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
         <v>11.9</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -3659,23 +3967,27 @@
       <c r="E85">
         <v>161</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="1">
+        <f t="shared" si="3"/>
+        <v>43919</v>
+      </c>
+      <c r="G85">
         <v>100</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>4</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>15</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
         <v>12.3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -3691,23 +4003,27 @@
       <c r="E86">
         <v>158</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
+        <f t="shared" si="3"/>
+        <v>43920</v>
+      </c>
+      <c r="G86">
         <v>112</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>5</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>16</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>1</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>6.8</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -3723,23 +4039,27 @@
       <c r="E87">
         <v>185</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
+        <f t="shared" si="3"/>
+        <v>43921</v>
+      </c>
+      <c r="G87">
         <v>119</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>9</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>17</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>2</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>7.5</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -3755,23 +4075,27 @@
       <c r="E88">
         <v>124</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
+        <f t="shared" si="3"/>
+        <v>43922</v>
+      </c>
+      <c r="G88">
         <v>126</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>14</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>18</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>3</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>7.6</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -3787,23 +4111,27 @@
       <c r="E89">
         <v>128</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
+        <f t="shared" si="3"/>
+        <v>43923</v>
+      </c>
+      <c r="G89">
         <v>131</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>14</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>19</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>4</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>5.4</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -3819,23 +4147,27 @@
       <c r="E90">
         <v>150</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="1">
+        <f t="shared" si="3"/>
+        <v>43924</v>
+      </c>
+      <c r="G90">
         <v>141</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>16</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>20</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>5</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>5.9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -3851,23 +4183,27 @@
       <c r="E91">
         <v>129</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="1">
+        <f t="shared" si="3"/>
+        <v>43925</v>
+      </c>
+      <c r="G91">
         <v>146</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>16</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>21</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>6</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>5.3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -3883,24 +4219,27 @@
       <c r="E92">
         <v>151</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
+        <f t="shared" si="3"/>
+        <v>43926</v>
+      </c>
+      <c r="G92">
         <v>160</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>19</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>22</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>7</v>
       </c>
-      <c r="J92" s="1">
-        <f>D92/(SUM(B89:B91)/3)*100</f>
-        <v>7.0138979088193265</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -3910,32 +4249,33 @@
       <c r="C93">
         <v>48</v>
       </c>
-      <c r="D93" s="2">
-        <f>SUM(C90:C93)/3</f>
-        <v>195.66666666666666</v>
-      </c>
-      <c r="E93" s="2">
-        <f>SUM(C88:C93)/5</f>
-        <v>160.4</v>
-      </c>
-      <c r="F93">
+      <c r="D93">
+        <v>196</v>
+      </c>
+      <c r="E93">
+        <v>160</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="3"/>
+        <v>43927</v>
+      </c>
+      <c r="G93">
         <v>163</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>19</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>23</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>8</v>
       </c>
-      <c r="J93" s="1">
-        <f>D93/(SUM(B90:B92)/3)*100</f>
-        <v>7.1255159019179404</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -3951,23 +4291,26 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G94">
         <v>3</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
       <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
       <c r="J94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -3983,23 +4326,26 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G95">
         <v>4</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>2</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -4015,23 +4361,27 @@
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
+        <f>F95+1</f>
+        <v>43907</v>
+      </c>
+      <c r="G96">
         <v>6</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>3</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -4047,23 +4397,27 @@
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="1">
+        <f t="shared" ref="F97:F116" si="4">F96+1</f>
+        <v>43908</v>
+      </c>
+      <c r="G97">
         <v>7</v>
       </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>4</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
       <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
         <v>24.6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -4079,23 +4433,27 @@
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="1">
+        <f t="shared" si="4"/>
+        <v>43909</v>
+      </c>
+      <c r="G98">
         <v>11</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>5</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
         <v>38.4</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -4111,23 +4469,27 @@
       <c r="E99">
         <v>126</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="1">
+        <f t="shared" si="4"/>
+        <v>43910</v>
+      </c>
+      <c r="G99">
         <v>13</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>1</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>6</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
         <v>29.7</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -4143,23 +4505,27 @@
       <c r="E100">
         <v>168</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="1">
+        <f t="shared" si="4"/>
+        <v>43911</v>
+      </c>
+      <c r="G100">
         <v>17</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>2</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>7</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
       <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
         <v>33.6</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -4175,23 +4541,27 @@
       <c r="E101">
         <v>160</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="1">
+        <f t="shared" si="4"/>
+        <v>43912</v>
+      </c>
+      <c r="G101">
         <v>19</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>2</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>8</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -4207,23 +4577,27 @@
       <c r="E102">
         <v>183</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="1">
+        <f t="shared" si="4"/>
+        <v>43913</v>
+      </c>
+      <c r="G102">
         <v>21</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>3</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>9</v>
       </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
       <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -4239,23 +4613,27 @@
       <c r="E103">
         <v>188</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="1">
+        <f t="shared" si="4"/>
+        <v>43914</v>
+      </c>
+      <c r="G103">
         <v>26</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>4</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>10</v>
       </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
       <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -4271,23 +4649,27 @@
       <c r="E104">
         <v>188</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="1">
+        <f t="shared" si="4"/>
+        <v>43915</v>
+      </c>
+      <c r="G104">
         <v>28</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>4</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>11</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
       <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -4303,23 +4685,27 @@
       <c r="E105">
         <v>215</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="1">
+        <f t="shared" si="4"/>
+        <v>43916</v>
+      </c>
+      <c r="G105">
         <v>34</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>6</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>12</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>1</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>17.2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -4335,23 +4721,27 @@
       <c r="E106">
         <v>230</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="1">
+        <f t="shared" si="4"/>
+        <v>43917</v>
+      </c>
+      <c r="G106">
         <v>37</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>7</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>13</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>2</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>12.7</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -4367,23 +4757,27 @@
       <c r="E107">
         <v>251</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="1">
+        <f t="shared" si="4"/>
+        <v>43918</v>
+      </c>
+      <c r="G107">
         <v>42</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>9</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>14</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>3</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>13.6</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -4399,23 +4793,27 @@
       <c r="E108">
         <v>197</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="1">
+        <f t="shared" si="4"/>
+        <v>43919</v>
+      </c>
+      <c r="G108">
         <v>42</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>9</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>15</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>4</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>6.3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -4431,23 +4829,27 @@
       <c r="E109">
         <v>267</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="1">
+        <f t="shared" si="4"/>
+        <v>43920</v>
+      </c>
+      <c r="G109">
         <v>49</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>13</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>16</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>5</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>10.1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -4463,23 +4865,27 @@
       <c r="E110">
         <v>225</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="1">
+        <f t="shared" si="4"/>
+        <v>43921</v>
+      </c>
+      <c r="G110">
         <v>52</v>
-      </c>
-      <c r="G110">
-        <v>17</v>
       </c>
       <c r="H110">
         <v>17</v>
       </c>
       <c r="I110">
+        <v>17</v>
+      </c>
+      <c r="J110">
         <v>6</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>8.1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -4495,23 +4901,27 @@
       <c r="E111">
         <v>224</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="1">
+        <f t="shared" si="4"/>
+        <v>43922</v>
+      </c>
+      <c r="G111">
         <v>55</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>21</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>18</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>7</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -4527,23 +4937,27 @@
       <c r="E112">
         <v>221</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="1">
+        <f t="shared" si="4"/>
+        <v>43923</v>
+      </c>
+      <c r="G112">
         <v>59</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>27</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>19</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>8</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>6.3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -4559,23 +4973,27 @@
       <c r="E113">
         <v>278</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="1">
+        <f t="shared" si="4"/>
+        <v>43924</v>
+      </c>
+      <c r="G113">
         <v>64</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>33</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>20</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>9</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>6.8</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -4591,23 +5009,27 @@
       <c r="E114">
         <v>238</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="1">
+        <f t="shared" si="4"/>
+        <v>43925</v>
+      </c>
+      <c r="G114">
         <v>68</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>42</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>21</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>10</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>7.5</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -4623,24 +5045,27 @@
       <c r="E115">
         <v>258</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="1">
+        <f t="shared" si="4"/>
+        <v>43926</v>
+      </c>
+      <c r="G115">
         <v>73</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>56</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>22</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>11</v>
       </c>
-      <c r="J115" s="1">
-        <f>D115/(SUM(B112:B114)/3)*100</f>
-        <v>7.2376659153518652</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -4650,32 +5075,33 @@
       <c r="C116">
         <v>99</v>
       </c>
-      <c r="D116" s="2">
-        <f>SUM(C113:C116)/3</f>
-        <v>322.33333333333331</v>
-      </c>
-      <c r="E116" s="2">
-        <f>SUM(C111:C116)/5</f>
-        <v>278.2</v>
-      </c>
-      <c r="F116">
+      <c r="D116">
+        <v>322</v>
+      </c>
+      <c r="E116">
+        <v>278</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="4"/>
+        <v>43927</v>
+      </c>
+      <c r="G116">
         <v>75</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>61</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>23</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>12</v>
       </c>
-      <c r="J116" s="1">
-        <f>D116/(SUM(B113:B115)/3)*100</f>
-        <v>7.5270491165252587</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -4691,23 +5117,26 @@
       <c r="E117">
         <v>0</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G117">
         <v>3</v>
       </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
       <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
         <v>1</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
       <c r="J117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -4723,23 +5152,26 @@
       <c r="E118">
         <v>0</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G118">
         <v>3</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
       <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <v>2</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
       <c r="J118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -4755,23 +5187,27 @@
       <c r="E119">
         <v>0</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="1">
+        <f>F118+1</f>
+        <v>43907</v>
+      </c>
+      <c r="G119">
         <v>4</v>
       </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
       <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
       <c r="J119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -4787,23 +5223,27 @@
       <c r="E120">
         <v>0</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="1">
+        <f t="shared" ref="F120:F139" si="5">F119+1</f>
+        <v>43908</v>
+      </c>
+      <c r="G120">
         <v>6</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>4</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
         <v>30.8</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -4819,23 +5259,27 @@
       <c r="E121">
         <v>0</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="1">
+        <f t="shared" si="5"/>
+        <v>43909</v>
+      </c>
+      <c r="G121">
         <v>8</v>
       </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>5</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
       <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -4851,23 +5295,27 @@
       <c r="E122">
         <v>127</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="1">
+        <f t="shared" si="5"/>
+        <v>43910</v>
+      </c>
+      <c r="G122">
         <v>10</v>
       </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>6</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
       <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
         <v>32.4</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -4883,23 +5331,27 @@
       <c r="E123">
         <v>150</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="1">
+        <f t="shared" si="5"/>
+        <v>43911</v>
+      </c>
+      <c r="G123">
         <v>13</v>
       </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
         <v>7</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
       <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -4915,23 +5367,27 @@
       <c r="E124">
         <v>196</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="1">
+        <f t="shared" si="5"/>
+        <v>43912</v>
+      </c>
+      <c r="G124">
         <v>16</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>1</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>8</v>
       </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
       <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
         <v>25.5</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -4947,23 +5403,27 @@
       <c r="E125">
         <v>201</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="1">
+        <f t="shared" si="5"/>
+        <v>43913</v>
+      </c>
+      <c r="G125">
         <v>19</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>4</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>9</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
       <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
         <v>21.7</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -4979,23 +5439,27 @@
       <c r="E126">
         <v>219</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="1">
+        <f t="shared" si="5"/>
+        <v>43914</v>
+      </c>
+      <c r="G126">
         <v>22</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>6</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>10</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>1</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -5011,23 +5475,27 @@
       <c r="E127">
         <v>267</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
+        <f t="shared" si="5"/>
+        <v>43915</v>
+      </c>
+      <c r="G127">
         <v>27</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>7</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>11</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>2</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>18.3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -5043,23 +5511,27 @@
       <c r="E128">
         <v>265</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
+        <f t="shared" si="5"/>
+        <v>43916</v>
+      </c>
+      <c r="G128">
         <v>29</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>8</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>12</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>3</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -5075,23 +5547,27 @@
       <c r="E129">
         <v>301</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
+        <f t="shared" si="5"/>
+        <v>43917</v>
+      </c>
+      <c r="G129">
         <v>35</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>10</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>13</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>4</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>16.7</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -5107,23 +5583,27 @@
       <c r="E130">
         <v>333</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="1">
+        <f t="shared" si="5"/>
+        <v>43918</v>
+      </c>
+      <c r="G130">
         <v>39</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>12</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>14</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>5</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>13.8</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -5139,23 +5619,27 @@
       <c r="E131">
         <v>337</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="1">
+        <f t="shared" si="5"/>
+        <v>43919</v>
+      </c>
+      <c r="G131">
         <v>43</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>21</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>15</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>6</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>13.3</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -5171,23 +5655,27 @@
       <c r="E132">
         <v>318</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="1">
+        <f t="shared" si="5"/>
+        <v>43920</v>
+      </c>
+      <c r="G132">
         <v>47</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>26</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>16</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>7</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -5203,23 +5691,27 @@
       <c r="E133">
         <v>343</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="1">
+        <f t="shared" si="5"/>
+        <v>43921</v>
+      </c>
+      <c r="G133">
         <v>51</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>34</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>17</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>8</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -5235,23 +5727,27 @@
       <c r="E134">
         <v>314</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="1">
+        <f t="shared" si="5"/>
+        <v>43922</v>
+      </c>
+      <c r="G134">
         <v>55</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>42</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>18</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>9</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -5267,23 +5763,27 @@
       <c r="E135">
         <v>309</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="1">
+        <f t="shared" si="5"/>
+        <v>43923</v>
+      </c>
+      <c r="G135">
         <v>59</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>45</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>19</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>10</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>7.9</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -5299,23 +5799,27 @@
       <c r="E136">
         <v>326</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="1">
+        <f t="shared" si="5"/>
+        <v>43924</v>
+      </c>
+      <c r="G136">
         <v>64</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>65</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>20</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>11</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>7.7</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -5331,23 +5835,27 @@
       <c r="E137">
         <v>368</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="1">
+        <f t="shared" si="5"/>
+        <v>43925</v>
+      </c>
+      <c r="G137">
         <v>70</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>85</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>21</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>12</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>8.4</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -5363,24 +5871,27 @@
       <c r="E138">
         <v>330</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="1">
+        <f t="shared" si="5"/>
+        <v>43926</v>
+      </c>
+      <c r="G138">
         <v>72</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>89</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>22</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>13</v>
       </c>
-      <c r="J138" s="1">
-        <f>D138/(SUM(B135:B137)/3)*100</f>
-        <v>6.6267022870919403</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -5390,32 +5901,33 @@
       <c r="C139">
         <v>248</v>
       </c>
-      <c r="D139" s="2">
-        <f>SUM(C136:C139)/3</f>
-        <v>421.66666666666669</v>
-      </c>
-      <c r="E139" s="2">
-        <f>SUM(C134:C139)/5</f>
-        <v>379.4</v>
-      </c>
-      <c r="F139">
+      <c r="D139">
+        <v>422</v>
+      </c>
+      <c r="E139">
+        <v>379</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="5"/>
+        <v>43927</v>
+      </c>
+      <c r="G139">
         <v>75</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>92</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>23</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>14</v>
       </c>
-      <c r="J139" s="1">
-        <f>D139/(SUM(B136:B138)/3)*100</f>
-        <v>7.7303837692495732</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -5431,23 +5943,26 @@
       <c r="E140">
         <v>0</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G140">
         <v>8</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>6</v>
-      </c>
-      <c r="H140">
-        <v>1</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -5463,23 +5978,26 @@
       <c r="E141">
         <v>0</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G141">
         <v>9</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>6</v>
-      </c>
-      <c r="H141">
-        <v>2</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -5495,23 +6013,27 @@
       <c r="E142">
         <v>0</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="1">
+        <f>F141+1</f>
+        <v>43907</v>
+      </c>
+      <c r="G142">
         <v>12</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>6</v>
-      </c>
-      <c r="H142">
-        <v>3</v>
       </c>
       <c r="I142">
         <v>3</v>
       </c>
       <c r="J142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -5527,23 +6049,27 @@
       <c r="E143">
         <v>0</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="1">
+        <f t="shared" ref="F143:F162" si="6">F142+1</f>
+        <v>43908</v>
+      </c>
+      <c r="G143">
         <v>13</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>6</v>
-      </c>
-      <c r="H143">
-        <v>4</v>
       </c>
       <c r="I143">
         <v>4</v>
       </c>
       <c r="J143">
+        <v>4</v>
+      </c>
+      <c r="K143">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -5559,23 +6085,27 @@
       <c r="E144">
         <v>0</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="1">
+        <f t="shared" si="6"/>
+        <v>43909</v>
+      </c>
+      <c r="G144">
         <v>17</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>6</v>
-      </c>
-      <c r="H144">
-        <v>5</v>
       </c>
       <c r="I144">
         <v>5</v>
       </c>
       <c r="J144">
+        <v>5</v>
+      </c>
+      <c r="K144">
         <v>24.8</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -5591,11 +6121,12 @@
       <c r="E145">
         <v>418</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="1">
+        <f t="shared" si="6"/>
+        <v>43910</v>
+      </c>
+      <c r="G145">
         <v>20</v>
-      </c>
-      <c r="G145">
-        <v>6</v>
       </c>
       <c r="H145">
         <v>6</v>
@@ -5604,10 +6135,13 @@
         <v>6</v>
       </c>
       <c r="J145">
+        <v>6</v>
+      </c>
+      <c r="K145">
         <v>18.5</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -5623,23 +6157,27 @@
       <c r="E146">
         <v>400</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="1">
+        <f t="shared" si="6"/>
+        <v>43911</v>
+      </c>
+      <c r="G146">
         <v>20</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>6</v>
-      </c>
-      <c r="H146">
-        <v>7</v>
       </c>
       <c r="I146">
         <v>7</v>
       </c>
       <c r="J146">
+        <v>7</v>
+      </c>
+      <c r="K146">
         <v>13.1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -5655,23 +6193,27 @@
       <c r="E147">
         <v>288</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="1">
+        <f t="shared" si="6"/>
+        <v>43912</v>
+      </c>
+      <c r="G147">
         <v>20</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>6</v>
-      </c>
-      <c r="H147">
-        <v>8</v>
       </c>
       <c r="I147">
         <v>8</v>
       </c>
       <c r="J147">
+        <v>8</v>
+      </c>
+      <c r="K147">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -5687,23 +6229,27 @@
       <c r="E148">
         <v>649</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="1">
+        <f t="shared" si="6"/>
+        <v>43913</v>
+      </c>
+      <c r="G148">
         <v>31</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>28</v>
-      </c>
-      <c r="H148">
-        <v>9</v>
       </c>
       <c r="I148">
         <v>9</v>
       </c>
       <c r="J148">
+        <v>9</v>
+      </c>
+      <c r="K148">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -5719,23 +6265,27 @@
       <c r="E149">
         <v>657</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="1">
+        <f t="shared" si="6"/>
+        <v>43914</v>
+      </c>
+      <c r="G149">
         <v>35</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>33</v>
-      </c>
-      <c r="H149">
-        <v>10</v>
       </c>
       <c r="I149">
         <v>10</v>
       </c>
       <c r="J149">
+        <v>10</v>
+      </c>
+      <c r="K149">
         <v>21.8</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -5751,23 +6301,27 @@
       <c r="E150">
         <v>740</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="1">
+        <f t="shared" si="6"/>
+        <v>43915</v>
+      </c>
+      <c r="G150">
         <v>40</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>43</v>
-      </c>
-      <c r="H150">
-        <v>11</v>
       </c>
       <c r="I150">
         <v>11</v>
       </c>
       <c r="J150">
+        <v>11</v>
+      </c>
+      <c r="K150">
         <v>23.6</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -5783,23 +6337,27 @@
       <c r="E151">
         <v>876</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="1">
+        <f t="shared" si="6"/>
+        <v>43916</v>
+      </c>
+      <c r="G151">
         <v>44</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>53</v>
-      </c>
-      <c r="H151">
-        <v>12</v>
       </c>
       <c r="I151">
         <v>12</v>
       </c>
       <c r="J151">
+        <v>12</v>
+      </c>
+      <c r="K151">
         <v>12.1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -5815,23 +6373,27 @@
       <c r="E152">
         <v>1138</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="1">
+        <f t="shared" si="6"/>
+        <v>43917</v>
+      </c>
+      <c r="G152">
         <v>51</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>72</v>
-      </c>
-      <c r="H152">
-        <v>13</v>
       </c>
       <c r="I152">
         <v>13</v>
       </c>
       <c r="J152">
+        <v>13</v>
+      </c>
+      <c r="K152">
         <v>13.6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>16</v>
       </c>
@@ -5847,23 +6409,27 @@
       <c r="E153">
         <v>1018</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="1">
+        <f t="shared" si="6"/>
+        <v>43918</v>
+      </c>
+      <c r="G153">
         <v>59</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>80</v>
-      </c>
-      <c r="H153">
-        <v>14</v>
       </c>
       <c r="I153">
         <v>14</v>
       </c>
       <c r="J153">
+        <v>14</v>
+      </c>
+      <c r="K153">
         <v>14.4</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -5879,23 +6445,27 @@
       <c r="E154">
         <v>1036</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="1">
+        <f t="shared" si="6"/>
+        <v>43919</v>
+      </c>
+      <c r="G154">
         <v>64</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>98</v>
-      </c>
-      <c r="H154">
-        <v>15</v>
       </c>
       <c r="I154">
         <v>15</v>
       </c>
       <c r="J154">
+        <v>15</v>
+      </c>
+      <c r="K154">
         <v>12.9</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>16</v>
       </c>
@@ -5911,23 +6481,27 @@
       <c r="E155">
         <v>1016</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="1">
+        <f t="shared" si="6"/>
+        <v>43920</v>
+      </c>
+      <c r="G155">
         <v>68</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>101</v>
-      </c>
-      <c r="H155">
-        <v>16</v>
       </c>
       <c r="I155">
         <v>16</v>
       </c>
       <c r="J155">
+        <v>16</v>
+      </c>
+      <c r="K155">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -5943,23 +6517,27 @@
       <c r="E156">
         <v>1080</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="1">
+        <f t="shared" si="6"/>
+        <v>43921</v>
+      </c>
+      <c r="G156">
         <v>74</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>117</v>
-      </c>
-      <c r="H156">
-        <v>17</v>
       </c>
       <c r="I156">
         <v>17</v>
       </c>
       <c r="J156">
+        <v>17</v>
+      </c>
+      <c r="K156">
         <v>7.7</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>16</v>
       </c>
@@ -5975,23 +6553,27 @@
       <c r="E157">
         <v>1043</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="1">
+        <f t="shared" si="6"/>
+        <v>43922</v>
+      </c>
+      <c r="G157">
         <v>80</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>134</v>
-      </c>
-      <c r="H157">
-        <v>18</v>
       </c>
       <c r="I157">
         <v>18</v>
       </c>
       <c r="J157">
+        <v>18</v>
+      </c>
+      <c r="K157">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -6007,23 +6589,27 @@
       <c r="E158">
         <v>964</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="1">
+        <f t="shared" si="6"/>
+        <v>43923</v>
+      </c>
+      <c r="G158">
         <v>86</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>161</v>
-      </c>
-      <c r="H158">
-        <v>19</v>
       </c>
       <c r="I158">
         <v>19</v>
       </c>
       <c r="J158">
+        <v>19</v>
+      </c>
+      <c r="K158">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -6039,23 +6625,27 @@
       <c r="E159">
         <v>1041</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="1">
+        <f t="shared" si="6"/>
+        <v>43924</v>
+      </c>
+      <c r="G159">
         <v>93</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>178</v>
-      </c>
-      <c r="H159">
-        <v>20</v>
       </c>
       <c r="I159">
         <v>20</v>
       </c>
       <c r="J159">
+        <v>20</v>
+      </c>
+      <c r="K159">
         <v>7.9</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -6071,23 +6661,27 @@
       <c r="E160">
         <v>1141</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="1">
+        <f t="shared" si="6"/>
+        <v>43925</v>
+      </c>
+      <c r="G160">
         <v>100</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>200</v>
-      </c>
-      <c r="H160">
-        <v>21</v>
       </c>
       <c r="I160">
         <v>21</v>
       </c>
       <c r="J160">
+        <v>21</v>
+      </c>
+      <c r="K160">
         <v>7.6</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -6103,24 +6697,27 @@
       <c r="E161">
         <v>1102</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="1">
+        <f t="shared" si="6"/>
+        <v>43926</v>
+      </c>
+      <c r="G161">
         <v>104</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>245</v>
-      </c>
-      <c r="H161">
-        <v>22</v>
       </c>
       <c r="I161">
         <v>22</v>
       </c>
-      <c r="J161" s="1">
-        <f>D161/(SUM(B158:B160)/3)*100</f>
-        <v>6.6288713490123801</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J161">
+        <v>22</v>
+      </c>
+      <c r="K161">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -6130,32 +6727,33 @@
       <c r="C162">
         <v>649</v>
       </c>
-      <c r="D162" s="2">
-        <f>SUM(C159:C162)/3</f>
+      <c r="D162">
         <v>1319</v>
       </c>
-      <c r="E162" s="2">
-        <f>SUM(C157:C162)/5</f>
-        <v>1231.8</v>
-      </c>
-      <c r="F162">
+      <c r="E162">
+        <v>1232</v>
+      </c>
+      <c r="F162" s="1">
+        <f t="shared" si="6"/>
+        <v>43927</v>
+      </c>
+      <c r="G162">
         <v>108</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>255</v>
-      </c>
-      <c r="H162">
-        <v>23</v>
       </c>
       <c r="I162">
         <v>23</v>
       </c>
-      <c r="J162" s="1">
-        <f>D162/(SUM(B159:B161)/3)*100</f>
-        <v>7.4343366024123547</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J162">
+        <v>23</v>
+      </c>
+      <c r="K162">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -6171,23 +6769,26 @@
       <c r="E163">
         <v>0</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G163">
         <v>4</v>
       </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
       <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
         <v>1</v>
       </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
       <c r="J163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -6203,23 +6804,26 @@
       <c r="E164">
         <v>0</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G164">
         <v>8</v>
       </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
         <v>2</v>
       </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
       <c r="J164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -6235,23 +6839,27 @@
       <c r="E165">
         <v>0</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="1">
+        <f>F164+1</f>
+        <v>43907</v>
+      </c>
+      <c r="G165">
         <v>11</v>
       </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
       <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
         <v>3</v>
       </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
       <c r="J165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -6267,23 +6875,27 @@
       <c r="E166">
         <v>0</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="1">
+        <f t="shared" ref="F166:F185" si="7">F165+1</f>
+        <v>43908</v>
+      </c>
+      <c r="G166">
         <v>12</v>
       </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
       <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
         <v>4</v>
       </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
       <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -6299,23 +6911,27 @@
       <c r="E167">
         <v>0</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="1">
+        <f t="shared" si="7"/>
+        <v>43909</v>
+      </c>
+      <c r="G167">
         <v>16</v>
       </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
         <v>5</v>
       </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
       <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
         <v>25.1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -6331,23 +6947,27 @@
       <c r="E168">
         <v>127</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="1">
+        <f t="shared" si="7"/>
+        <v>43910</v>
+      </c>
+      <c r="G168">
         <v>20</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>1</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>6</v>
       </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
       <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
         <v>23.2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -6363,23 +6983,27 @@
       <c r="E169">
         <v>123</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="1">
+        <f t="shared" si="7"/>
+        <v>43911</v>
+      </c>
+      <c r="G169">
         <v>23</v>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>1</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>7</v>
       </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
       <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
         <v>24.3</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -6395,23 +7019,27 @@
       <c r="E170">
         <v>122</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="1">
+        <f t="shared" si="7"/>
+        <v>43912</v>
+      </c>
+      <c r="G170">
         <v>26</v>
       </c>
-      <c r="G170">
+      <c r="H170">
         <v>2</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>8</v>
       </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
       <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -6427,23 +7055,27 @@
       <c r="E171">
         <v>141</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="1">
+        <f t="shared" si="7"/>
+        <v>43913</v>
+      </c>
+      <c r="G171">
         <v>29</v>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>2</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>9</v>
       </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
       <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
         <v>13.4</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -6459,23 +7091,27 @@
       <c r="E172">
         <v>147</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="1">
+        <f t="shared" si="7"/>
+        <v>43914</v>
+      </c>
+      <c r="G172">
         <v>34</v>
       </c>
-      <c r="G172">
+      <c r="H172">
         <v>5</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>10</v>
       </c>
-      <c r="I172">
+      <c r="J172">
         <v>1</v>
       </c>
-      <c r="J172">
+      <c r="K172">
         <v>13.6</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -6491,23 +7127,27 @@
       <c r="E173">
         <v>158</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="1">
+        <f t="shared" si="7"/>
+        <v>43915</v>
+      </c>
+      <c r="G173">
         <v>39</v>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>5</v>
       </c>
-      <c r="H173">
+      <c r="I173">
         <v>11</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>2</v>
       </c>
-      <c r="J173">
+      <c r="K173">
         <v>14.9</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -6523,23 +7163,27 @@
       <c r="E174">
         <v>176</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="1">
+        <f t="shared" si="7"/>
+        <v>43916</v>
+      </c>
+      <c r="G174">
         <v>44</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>6</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>12</v>
       </c>
-      <c r="I174">
+      <c r="J174">
         <v>3</v>
       </c>
-      <c r="J174">
+      <c r="K174">
         <v>15.4</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -6555,23 +7199,27 @@
       <c r="E175">
         <v>184</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="1">
+        <f t="shared" si="7"/>
+        <v>43917</v>
+      </c>
+      <c r="G175">
         <v>48</v>
       </c>
-      <c r="G175">
+      <c r="H175">
         <v>8</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>13</v>
       </c>
-      <c r="I175">
+      <c r="J175">
         <v>4</v>
       </c>
-      <c r="J175">
+      <c r="K175">
         <v>12.6</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -6587,23 +7235,27 @@
       <c r="E176">
         <v>207</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="1">
+        <f t="shared" si="7"/>
+        <v>43918</v>
+      </c>
+      <c r="G176">
         <v>54</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>11</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>14</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>5</v>
       </c>
-      <c r="J176">
+      <c r="K176">
         <v>11.5</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -6619,23 +7271,27 @@
       <c r="E177">
         <v>205</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="1">
+        <f t="shared" si="7"/>
+        <v>43919</v>
+      </c>
+      <c r="G177">
         <v>59</v>
       </c>
-      <c r="G177">
+      <c r="H177">
         <v>12</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>15</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>6</v>
       </c>
-      <c r="J177">
+      <c r="K177">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -6651,23 +7307,27 @@
       <c r="E178">
         <v>199</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="1">
+        <f t="shared" si="7"/>
+        <v>43920</v>
+      </c>
+      <c r="G178">
         <v>63</v>
       </c>
-      <c r="G178">
+      <c r="H178">
         <v>18</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>16</v>
       </c>
-      <c r="I178">
+      <c r="J178">
         <v>7</v>
       </c>
-      <c r="J178">
+      <c r="K178">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -6683,23 +7343,27 @@
       <c r="E179">
         <v>182</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="1">
+        <f t="shared" si="7"/>
+        <v>43921</v>
+      </c>
+      <c r="G179">
         <v>67</v>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>19</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>17</v>
       </c>
-      <c r="I179">
+      <c r="J179">
         <v>8</v>
       </c>
-      <c r="J179">
+      <c r="K179">
         <v>7.1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -6715,23 +7379,27 @@
       <c r="E180">
         <v>186</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="1">
+        <f t="shared" si="7"/>
+        <v>43922</v>
+      </c>
+      <c r="G180">
         <v>71</v>
       </c>
-      <c r="G180">
+      <c r="H180">
         <v>23</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>18</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>9</v>
       </c>
-      <c r="J180">
+      <c r="K180">
         <v>6.5</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -6747,23 +7415,27 @@
       <c r="E181">
         <v>184</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="1">
+        <f t="shared" si="7"/>
+        <v>43923</v>
+      </c>
+      <c r="G181">
         <v>77</v>
       </c>
-      <c r="G181">
+      <c r="H181">
         <v>26</v>
       </c>
-      <c r="H181">
+      <c r="I181">
         <v>19</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>10</v>
       </c>
-      <c r="J181">
+      <c r="K181">
         <v>6.7</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -6779,23 +7451,27 @@
       <c r="E182">
         <v>193</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="1">
+        <f t="shared" si="7"/>
+        <v>43924</v>
+      </c>
+      <c r="G182">
         <v>82</v>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>26</v>
       </c>
-      <c r="H182">
+      <c r="I182">
         <v>20</v>
       </c>
-      <c r="I182">
+      <c r="J182">
         <v>11</v>
       </c>
-      <c r="J182">
+      <c r="K182">
         <v>7.3</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -6811,23 +7487,27 @@
       <c r="E183">
         <v>184</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="1">
+        <f t="shared" si="7"/>
+        <v>43925</v>
+      </c>
+      <c r="G183">
         <v>86</v>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>29</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>21</v>
       </c>
-      <c r="I183">
+      <c r="J183">
         <v>12</v>
       </c>
-      <c r="J183">
+      <c r="K183">
         <v>6.4</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -6843,24 +7523,27 @@
       <c r="E184">
         <v>187</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="1">
+        <f t="shared" si="7"/>
+        <v>43926</v>
+      </c>
+      <c r="G184">
         <v>90</v>
       </c>
-      <c r="G184">
+      <c r="H184">
         <v>32</v>
       </c>
-      <c r="H184">
+      <c r="I184">
         <v>22</v>
       </c>
-      <c r="I184">
+      <c r="J184">
         <v>13</v>
       </c>
-      <c r="J184" s="1">
-        <f>D184/(SUM(B181:B183)/3)*100</f>
-        <v>5.3110622124424891</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K184">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -6870,32 +7553,33 @@
       <c r="C185">
         <v>219</v>
       </c>
-      <c r="D185" s="2">
-        <f>SUM(C182:C185)/3</f>
+      <c r="D185">
         <v>250</v>
       </c>
-      <c r="E185" s="2">
-        <f>SUM(C180:C185)/5</f>
-        <v>231.2</v>
-      </c>
-      <c r="F185">
+      <c r="E185">
+        <v>231</v>
+      </c>
+      <c r="F185" s="1">
+        <f t="shared" si="7"/>
+        <v>43927</v>
+      </c>
+      <c r="G185">
         <v>95</v>
       </c>
-      <c r="G185">
+      <c r="H185">
         <v>32</v>
       </c>
-      <c r="H185">
+      <c r="I185">
         <v>23</v>
       </c>
-      <c r="I185">
+      <c r="J185">
         <v>14</v>
       </c>
-      <c r="J185" s="1">
-        <f>D185/(SUM(B182:B184)/3)*100</f>
-        <v>7.1231835881850127</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K185">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -6911,23 +7595,26 @@
       <c r="E186">
         <v>0</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G186">
         <v>2</v>
       </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
       <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
         <v>1</v>
       </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
       <c r="J186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>18</v>
       </c>
@@ -6943,23 +7630,26 @@
       <c r="E187">
         <v>0</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G187">
         <v>3</v>
       </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
         <v>2</v>
       </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
       <c r="J187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>18</v>
       </c>
@@ -6975,23 +7665,27 @@
       <c r="E188">
         <v>0</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="1">
+        <f>F187+1</f>
+        <v>43907</v>
+      </c>
+      <c r="G188">
         <v>5</v>
       </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>3</v>
       </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
       <c r="J188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>18</v>
       </c>
@@ -7007,23 +7701,27 @@
       <c r="E189">
         <v>0</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="1">
+        <f t="shared" ref="F189:F208" si="8">F188+1</f>
+        <v>43908</v>
+      </c>
+      <c r="G189">
         <v>5</v>
       </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>4</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
         <v>23.2</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -7039,23 +7737,27 @@
       <c r="E190">
         <v>0</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="1">
+        <f t="shared" si="8"/>
+        <v>43909</v>
+      </c>
+      <c r="G190">
         <v>7</v>
       </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
       <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
         <v>5</v>
       </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
       <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
         <v>32.9</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>18</v>
       </c>
@@ -7071,23 +7773,27 @@
       <c r="E191">
         <v>60</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="1">
+        <f t="shared" si="8"/>
+        <v>43910</v>
+      </c>
+      <c r="G191">
         <v>10</v>
       </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>6</v>
       </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
       <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
         <v>32.5</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -7103,23 +7809,27 @@
       <c r="E192">
         <v>93</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="1">
+        <f t="shared" si="8"/>
+        <v>43911</v>
+      </c>
+      <c r="G192">
         <v>14</v>
       </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
       <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
         <v>7</v>
       </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
       <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
         <v>42.6</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>18</v>
       </c>
@@ -7135,23 +7845,27 @@
       <c r="E193">
         <v>85</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="1">
+        <f t="shared" si="8"/>
+        <v>43912</v>
+      </c>
+      <c r="G193">
         <v>15</v>
       </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
       <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
         <v>8</v>
       </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
       <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
         <v>26.7</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -7167,23 +7881,27 @@
       <c r="E194">
         <v>91</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="1">
+        <f t="shared" si="8"/>
+        <v>43913</v>
+      </c>
+      <c r="G194">
         <v>16</v>
       </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
       <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
         <v>9</v>
       </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
       <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
         <v>16.5</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -7199,23 +7917,27 @@
       <c r="E195">
         <v>107</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="1">
+        <f t="shared" si="8"/>
+        <v>43914</v>
+      </c>
+      <c r="G195">
         <v>20</v>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>1</v>
       </c>
-      <c r="H195">
+      <c r="I195">
         <v>10</v>
       </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
       <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
         <v>13.3</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -7231,23 +7953,27 @@
       <c r="E196">
         <v>113</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="1">
+        <f t="shared" si="8"/>
+        <v>43915</v>
+      </c>
+      <c r="G196">
         <v>24</v>
       </c>
-      <c r="G196">
+      <c r="H196">
         <v>6</v>
       </c>
-      <c r="H196">
+      <c r="I196">
         <v>11</v>
       </c>
-      <c r="I196">
+      <c r="J196">
         <v>1</v>
       </c>
-      <c r="J196">
+      <c r="K196">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -7263,23 +7989,27 @@
       <c r="E197">
         <v>115</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="1">
+        <f t="shared" si="8"/>
+        <v>43916</v>
+      </c>
+      <c r="G197">
         <v>28</v>
       </c>
-      <c r="G197">
+      <c r="H197">
         <v>7</v>
       </c>
-      <c r="H197">
+      <c r="I197">
         <v>12</v>
       </c>
-      <c r="I197">
+      <c r="J197">
         <v>2</v>
       </c>
-      <c r="J197">
+      <c r="K197">
         <v>20.2</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -7295,23 +8025,27 @@
       <c r="E198">
         <v>140</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="1">
+        <f t="shared" si="8"/>
+        <v>43917</v>
+      </c>
+      <c r="G198">
         <v>32</v>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>7</v>
       </c>
-      <c r="H198">
+      <c r="I198">
         <v>13</v>
       </c>
-      <c r="I198">
+      <c r="J198">
         <v>3</v>
       </c>
-      <c r="J198">
+      <c r="K198">
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>18</v>
       </c>
@@ -7327,23 +8061,27 @@
       <c r="E199">
         <v>156</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="1">
+        <f t="shared" si="8"/>
+        <v>43918</v>
+      </c>
+      <c r="G199">
         <v>35</v>
       </c>
-      <c r="G199">
+      <c r="H199">
         <v>9</v>
       </c>
-      <c r="H199">
+      <c r="I199">
         <v>14</v>
       </c>
-      <c r="I199">
+      <c r="J199">
         <v>4</v>
       </c>
-      <c r="J199">
+      <c r="K199">
         <v>13.9</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -7359,23 +8097,27 @@
       <c r="E200">
         <v>161</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="1">
+        <f t="shared" si="8"/>
+        <v>43919</v>
+      </c>
+      <c r="G200">
         <v>40</v>
       </c>
-      <c r="G200">
+      <c r="H200">
         <v>9</v>
       </c>
-      <c r="H200">
+      <c r="I200">
         <v>15</v>
       </c>
-      <c r="I200">
+      <c r="J200">
         <v>5</v>
       </c>
-      <c r="J200">
+      <c r="K200">
         <v>12.3</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>18</v>
       </c>
@@ -7391,23 +8133,27 @@
       <c r="E201">
         <v>167</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="1">
+        <f t="shared" si="8"/>
+        <v>43920</v>
+      </c>
+      <c r="G201">
         <v>44</v>
       </c>
-      <c r="G201">
+      <c r="H201">
         <v>9</v>
       </c>
-      <c r="H201">
+      <c r="I201">
         <v>16</v>
       </c>
-      <c r="I201">
+      <c r="J201">
         <v>6</v>
       </c>
-      <c r="J201">
+      <c r="K201">
         <v>11.2</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -7423,23 +8169,27 @@
       <c r="E202">
         <v>148</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="1">
+        <f t="shared" si="8"/>
+        <v>43921</v>
+      </c>
+      <c r="G202">
         <v>46</v>
       </c>
-      <c r="G202">
+      <c r="H202">
         <v>12</v>
       </c>
-      <c r="H202">
+      <c r="I202">
         <v>17</v>
       </c>
-      <c r="I202">
+      <c r="J202">
         <v>7</v>
       </c>
-      <c r="J202">
+      <c r="K202">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>18</v>
       </c>
@@ -7455,23 +8205,27 @@
       <c r="E203">
         <v>146</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="1">
+        <f t="shared" si="8"/>
+        <v>43922</v>
+      </c>
+      <c r="G203">
         <v>50</v>
       </c>
-      <c r="G203">
+      <c r="H203">
         <v>17</v>
       </c>
-      <c r="H203">
+      <c r="I203">
         <v>18</v>
       </c>
-      <c r="I203">
+      <c r="J203">
         <v>8</v>
       </c>
-      <c r="J203">
+      <c r="K203">
         <v>7.9</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -7487,23 +8241,27 @@
       <c r="E204">
         <v>150</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="1">
+        <f t="shared" si="8"/>
+        <v>43923</v>
+      </c>
+      <c r="G204">
         <v>54</v>
       </c>
-      <c r="G204">
+      <c r="H204">
         <v>18</v>
       </c>
-      <c r="H204">
+      <c r="I204">
         <v>19</v>
       </c>
-      <c r="I204">
+      <c r="J204">
         <v>9</v>
       </c>
-      <c r="J204">
+      <c r="K204">
         <v>6.8</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>18</v>
       </c>
@@ -7519,23 +8277,27 @@
       <c r="E205">
         <v>144</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="1">
+        <f t="shared" si="8"/>
+        <v>43924</v>
+      </c>
+      <c r="G205">
         <v>57</v>
       </c>
-      <c r="G205">
+      <c r="H205">
         <v>21</v>
       </c>
-      <c r="H205">
+      <c r="I205">
         <v>20</v>
       </c>
-      <c r="I205">
+      <c r="J205">
         <v>10</v>
       </c>
-      <c r="J205">
+      <c r="K205">
         <v>7.4</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>18</v>
       </c>
@@ -7551,23 +8313,27 @@
       <c r="E206">
         <v>159</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="1">
+        <f t="shared" si="8"/>
+        <v>43925</v>
+      </c>
+      <c r="G206">
         <v>64</v>
       </c>
-      <c r="G206">
+      <c r="H206">
         <v>24</v>
       </c>
-      <c r="H206">
+      <c r="I206">
         <v>21</v>
       </c>
-      <c r="I206">
+      <c r="J206">
         <v>11</v>
       </c>
-      <c r="J206">
+      <c r="K206">
         <v>8.5</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>18</v>
       </c>
@@ -7583,24 +8349,27 @@
       <c r="E207">
         <v>172</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="1">
+        <f t="shared" si="8"/>
+        <v>43926</v>
+      </c>
+      <c r="G207">
         <v>67</v>
       </c>
-      <c r="G207">
+      <c r="H207">
         <v>32</v>
       </c>
-      <c r="H207">
+      <c r="I207">
         <v>22</v>
       </c>
-      <c r="I207">
+      <c r="J207">
         <v>12</v>
       </c>
-      <c r="J207" s="1">
-        <f>D207/(SUM(B204:B206)/3)*100</f>
-        <v>7.8481012658227849</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K207">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>18</v>
       </c>
@@ -7610,32 +8379,33 @@
       <c r="C208">
         <v>162</v>
       </c>
-      <c r="D208" s="2">
-        <f>SUM(C205:C208)/3</f>
+      <c r="D208">
         <v>240</v>
       </c>
-      <c r="E208" s="2">
-        <f>SUM(C203:C208)/5</f>
-        <v>204.2</v>
-      </c>
-      <c r="F208">
+      <c r="E208">
+        <v>204</v>
+      </c>
+      <c r="F208" s="1">
+        <f t="shared" si="8"/>
+        <v>43927</v>
+      </c>
+      <c r="G208">
         <v>71</v>
       </c>
-      <c r="G208">
+      <c r="H208">
         <v>34</v>
       </c>
-      <c r="H208">
+      <c r="I208">
         <v>23</v>
       </c>
-      <c r="I208">
+      <c r="J208">
         <v>13</v>
       </c>
-      <c r="J208" s="1">
-        <f>D208/(SUM(B205:B207)/3)*100</f>
-        <v>9.3896713615023462</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K208">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -7651,23 +8421,26 @@
       <c r="E209">
         <v>0</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G209">
         <v>3</v>
       </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
       <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
         <v>1</v>
       </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
       <c r="J209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -7683,23 +8456,26 @@
       <c r="E210">
         <v>0</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="1">
+        <v>43906</v>
+      </c>
+      <c r="G210">
         <v>4</v>
       </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
       <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
         <v>2</v>
       </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
       <c r="J210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -7715,23 +8491,27 @@
       <c r="E211">
         <v>0</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="1">
+        <f>F210+1</f>
+        <v>43907</v>
+      </c>
+      <c r="G211">
         <v>4</v>
       </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
       <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
         <v>3</v>
       </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
       <c r="J211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -7747,23 +8527,27 @@
       <c r="E212">
         <v>0</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="1">
+        <f t="shared" ref="F212:F231" si="9">F211+1</f>
+        <v>43908</v>
+      </c>
+      <c r="G212">
         <v>6</v>
       </c>
-      <c r="G212">
-        <v>0</v>
-      </c>
       <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
         <v>4</v>
       </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
       <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
         <v>21.2</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -7779,23 +8563,27 @@
       <c r="E213">
         <v>0</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="1">
+        <f t="shared" si="9"/>
+        <v>43909</v>
+      </c>
+      <c r="G213">
         <v>7</v>
       </c>
-      <c r="G213">
-        <v>0</v>
-      </c>
       <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
         <v>5</v>
       </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
       <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
         <v>24.2</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -7811,23 +8599,27 @@
       <c r="E214">
         <v>36</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="1">
+        <f t="shared" si="9"/>
+        <v>43910</v>
+      </c>
+      <c r="G214">
         <v>9</v>
       </c>
-      <c r="G214">
+      <c r="H214">
         <v>1</v>
       </c>
-      <c r="H214">
+      <c r="I214">
         <v>6</v>
       </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
       <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
         <v>28.3</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -7843,23 +8635,27 @@
       <c r="E215">
         <v>41</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="1">
+        <f t="shared" si="9"/>
+        <v>43911</v>
+      </c>
+      <c r="G215">
         <v>11</v>
       </c>
-      <c r="G215">
+      <c r="H215">
         <v>1</v>
       </c>
-      <c r="H215">
+      <c r="I215">
         <v>7</v>
       </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
       <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
         <v>23.9</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -7875,23 +8671,27 @@
       <c r="E216">
         <v>44</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="1">
+        <f t="shared" si="9"/>
+        <v>43912</v>
+      </c>
+      <c r="G216">
         <v>12</v>
       </c>
-      <c r="G216">
+      <c r="H216">
         <v>1</v>
       </c>
-      <c r="H216">
+      <c r="I216">
         <v>8</v>
       </c>
-      <c r="I216">
-        <v>0</v>
-      </c>
       <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -7907,23 +8707,27 @@
       <c r="E217">
         <v>45</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="1">
+        <f t="shared" si="9"/>
+        <v>43913</v>
+      </c>
+      <c r="G217">
         <v>13</v>
       </c>
-      <c r="G217">
+      <c r="H217">
         <v>1</v>
       </c>
-      <c r="H217">
+      <c r="I217">
         <v>9</v>
       </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
       <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
         <v>12.7</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -7939,23 +8743,27 @@
       <c r="E218">
         <v>55</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="1">
+        <f t="shared" si="9"/>
+        <v>43914</v>
+      </c>
+      <c r="G218">
         <v>17</v>
       </c>
-      <c r="G218">
+      <c r="H218">
         <v>2</v>
       </c>
-      <c r="H218">
+      <c r="I218">
         <v>10</v>
       </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
       <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
         <v>16.5</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -7971,23 +8779,27 @@
       <c r="E219">
         <v>62</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="1">
+        <f t="shared" si="9"/>
+        <v>43915</v>
+      </c>
+      <c r="G219">
         <v>20</v>
       </c>
-      <c r="G219">
+      <c r="H219">
         <v>3</v>
       </c>
-      <c r="H219">
+      <c r="I219">
         <v>11</v>
       </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
       <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -8003,23 +8815,27 @@
       <c r="E220">
         <v>73</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="1">
+        <f t="shared" si="9"/>
+        <v>43916</v>
+      </c>
+      <c r="G220">
         <v>23</v>
       </c>
-      <c r="G220">
+      <c r="H220">
         <v>3</v>
       </c>
-      <c r="H220">
+      <c r="I220">
         <v>12</v>
       </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
       <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
         <v>20.2</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -8035,23 +8851,27 @@
       <c r="E221">
         <v>93</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="1">
+        <f t="shared" si="9"/>
+        <v>43917</v>
+      </c>
+      <c r="G221">
         <v>28</v>
       </c>
-      <c r="G221">
+      <c r="H221">
         <v>4</v>
       </c>
-      <c r="H221">
+      <c r="I221">
         <v>13</v>
       </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
       <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
         <v>19.2</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -8067,23 +8887,27 @@
       <c r="E222">
         <v>106</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="1">
+        <f t="shared" si="9"/>
+        <v>43918</v>
+      </c>
+      <c r="G222">
         <v>32</v>
       </c>
-      <c r="G222">
+      <c r="H222">
         <v>4</v>
       </c>
-      <c r="H222">
+      <c r="I222">
         <v>14</v>
       </c>
-      <c r="I222">
-        <v>0</v>
-      </c>
       <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>19</v>
       </c>
@@ -8099,23 +8923,27 @@
       <c r="E223">
         <v>105</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="1">
+        <f t="shared" si="9"/>
+        <v>43919</v>
+      </c>
+      <c r="G223">
         <v>35</v>
       </c>
-      <c r="G223">
+      <c r="H223">
         <v>6</v>
       </c>
-      <c r="H223">
+      <c r="I223">
         <v>15</v>
       </c>
-      <c r="I223">
+      <c r="J223">
         <v>1</v>
       </c>
-      <c r="J223">
+      <c r="K223">
         <v>13.7</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -8131,23 +8959,27 @@
       <c r="E224">
         <v>94</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="1">
+        <f t="shared" si="9"/>
+        <v>43920</v>
+      </c>
+      <c r="G224">
         <v>36</v>
       </c>
-      <c r="G224">
+      <c r="H224">
         <v>7</v>
       </c>
-      <c r="H224">
+      <c r="I224">
         <v>16</v>
       </c>
-      <c r="I224">
+      <c r="J224">
         <v>2</v>
       </c>
-      <c r="J224">
+      <c r="K224">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>19</v>
       </c>
@@ -8163,23 +8995,27 @@
       <c r="E225">
         <v>89</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="1">
+        <f t="shared" si="9"/>
+        <v>43921</v>
+      </c>
+      <c r="G225">
         <v>39</v>
       </c>
-      <c r="G225">
+      <c r="H225">
         <v>9</v>
       </c>
-      <c r="H225">
+      <c r="I225">
         <v>17</v>
       </c>
-      <c r="I225">
+      <c r="J225">
         <v>3</v>
       </c>
-      <c r="J225">
+      <c r="K225">
         <v>6.9</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -8195,23 +9031,27 @@
       <c r="E226">
         <v>87</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="1">
+        <f t="shared" si="9"/>
+        <v>43922</v>
+      </c>
+      <c r="G226">
         <v>43</v>
       </c>
-      <c r="G226">
+      <c r="H226">
         <v>10</v>
       </c>
-      <c r="H226">
+      <c r="I226">
         <v>18</v>
       </c>
-      <c r="I226">
+      <c r="J226">
         <v>4</v>
       </c>
-      <c r="J226">
+      <c r="K226">
         <v>7.6</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -8227,23 +9067,27 @@
       <c r="E227">
         <v>84</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="1">
+        <f t="shared" si="9"/>
+        <v>43923</v>
+      </c>
+      <c r="G227">
         <v>46</v>
       </c>
-      <c r="G227">
+      <c r="H227">
         <v>11</v>
       </c>
-      <c r="H227">
+      <c r="I227">
         <v>19</v>
       </c>
-      <c r="I227">
+      <c r="J227">
         <v>5</v>
       </c>
-      <c r="J227">
+      <c r="K227">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -8259,23 +9103,27 @@
       <c r="E228">
         <v>88</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="1">
+        <f t="shared" si="9"/>
+        <v>43924</v>
+      </c>
+      <c r="G228">
         <v>50</v>
       </c>
-      <c r="G228">
+      <c r="H228">
         <v>15</v>
       </c>
-      <c r="H228">
+      <c r="I228">
         <v>20</v>
       </c>
-      <c r="I228">
+      <c r="J228">
         <v>6</v>
       </c>
-      <c r="J228">
+      <c r="K228">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -8291,23 +9139,27 @@
       <c r="E229">
         <v>102</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="1">
+        <f t="shared" si="9"/>
+        <v>43925</v>
+      </c>
+      <c r="G229">
         <v>54</v>
       </c>
-      <c r="G229">
+      <c r="H229">
         <v>17</v>
       </c>
-      <c r="H229">
+      <c r="I229">
         <v>21</v>
       </c>
-      <c r="I229">
+      <c r="J229">
         <v>7</v>
       </c>
-      <c r="J229">
+      <c r="K229">
         <v>7.8</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -8323,24 +9175,27 @@
       <c r="E230">
         <v>102</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="1">
+        <f t="shared" si="9"/>
+        <v>43926</v>
+      </c>
+      <c r="G230">
         <v>56</v>
       </c>
-      <c r="G230">
+      <c r="H230">
         <v>18</v>
       </c>
-      <c r="H230">
+      <c r="I230">
         <v>22</v>
       </c>
-      <c r="I230">
+      <c r="J230">
         <v>8</v>
       </c>
-      <c r="J230" s="1">
-        <f>D230/(SUM(B227:B229)/3)*100</f>
-        <v>6.8480516486050265</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K230">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -8350,29 +9205,30 @@
       <c r="C231">
         <v>40</v>
       </c>
-      <c r="D231" s="2">
-        <f>SUM(C228:C231)/3</f>
+      <c r="D231">
         <v>112</v>
       </c>
-      <c r="E231" s="2">
-        <f>SUM(C226:C231)/5</f>
-        <v>110.2</v>
-      </c>
-      <c r="F231">
+      <c r="E231">
+        <v>110</v>
+      </c>
+      <c r="F231" s="1">
+        <f t="shared" si="9"/>
+        <v>43927</v>
+      </c>
+      <c r="G231">
         <v>58</v>
       </c>
-      <c r="G231">
+      <c r="H231">
         <v>20</v>
       </c>
-      <c r="H231">
+      <c r="I231">
         <v>23</v>
       </c>
-      <c r="I231">
+      <c r="J231">
         <v>9</v>
       </c>
-      <c r="J231" s="1">
-        <f>D231/(SUM(B228:B230)/3)*100</f>
-        <v>7.2523203108137286</v>
+      <c r="K231">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
